--- a/data/trans_dic/POLIPATOLOGIA_2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,08; 41,96</t>
+          <t>36,04; 41,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,91; 52,17</t>
+          <t>45,56; 52,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,49; 47,7</t>
+          <t>40,85; 48,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,72; 60,21</t>
+          <t>51,52; 59,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,72; 58,06</t>
+          <t>52,72; 58,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,91; 66,01</t>
+          <t>60,78; 66,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>60,57; 66,55</t>
+          <t>60,21; 66,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,62; 74,88</t>
+          <t>69,82; 75,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,12; 50,21</t>
+          <t>45,99; 50,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,13; 59,39</t>
+          <t>55,2; 59,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,71; 57,56</t>
+          <t>52,89; 57,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>63,34; 68,0</t>
+          <t>63,25; 67,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 12,69</t>
+          <t>9,47; 12,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 17,07</t>
+          <t>13,75; 17,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,88</t>
+          <t>16,35; 19,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 29,48</t>
+          <t>18,14; 29,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 21,94</t>
+          <t>17,95; 21,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,79; 26,91</t>
+          <t>22,57; 26,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,86; 29,14</t>
+          <t>24,79; 29,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,26; 63,22</t>
+          <t>39,09; 60,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,94; 16,5</t>
+          <t>14,03; 16,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,56; 21,25</t>
+          <t>18,4; 21,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,02; 23,75</t>
+          <t>20,95; 23,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,55; 45,0</t>
+          <t>30,44; 45,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,08</t>
+          <t>8,5; 14,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,85</t>
+          <t>8,47; 14,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 22,01</t>
+          <t>14,59; 21,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,24; 30,5</t>
+          <t>23,55; 30,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,75; 22,47</t>
+          <t>15,33; 22,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,52; 23,95</t>
+          <t>16,14; 24,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,77</t>
+          <t>16,81; 23,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,95; 40,27</t>
+          <t>33,98; 40,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,16</t>
+          <t>12,44; 17,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,96</t>
+          <t>13,19; 18,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 21,82</t>
+          <t>16,52; 21,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,94; 34,76</t>
+          <t>29,74; 34,63</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,39; 21,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,7; 25,86</t>
+          <t>22,76; 25,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,53; 25,48</t>
+          <t>22,37; 25,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,77; 33,24</t>
+          <t>23,45; 33,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,94; 35,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,08; 40,28</t>
+          <t>37,14; 40,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,44; 37,81</t>
+          <t>34,59; 37,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,84; 60,56</t>
+          <t>46,09; 59,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,53; 27,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,49; 32,78</t>
+          <t>30,53; 32,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,02; 31,24</t>
+          <t>28,95; 31,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,6; 45,87</t>
+          <t>36,31; 46,13</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1126</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1231</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>400706</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>475878</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>334693</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>287549</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>728884</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>848951</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>632282</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>546991</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1129589</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1324829</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>966975</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>834541</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>371782; 432060</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>444012; 508121</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>308165; 362965</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>265287; 308386</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>693287; 765645</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>813158; 886050</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>598904; 663046</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>527472; 567155</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1079418; 1176506</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1276419; 1371811</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>925109; 1011150</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>803518; 863613</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1293</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>185406</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>302544</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>374409</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>588020</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>315084</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>433807</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>534722</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1035067</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>500490</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>736351</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>909131</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1623087</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>160300; 212534</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>270066; 337562</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>339502; 411085</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>415467; 678475</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>284909; 346256</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>396766; 471962</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>492820; 577707</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>874840; 1344193</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>460382; 539897</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>684848; 786434</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>851740; 963412</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1378459; 2074903</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>61871</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>53704</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>98554</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>174945</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>88394</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>91655</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109342</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>246082</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>150265</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>145359</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>207896</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>421027</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>46862; 78384</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40760; 71740</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79784; 119166</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>152292; 197696</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>73045; 106265</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>74019; 111193</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92296; 130092</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>224403; 268726</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>127859; 175185</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>123990; 170930</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>181096; 236631</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>388685; 452667</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>795</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2767</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4085</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>647983</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>832127</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>807656</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1050515</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1132361</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1374412</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1276346</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1828140</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1780344</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2206539</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2084002</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2878655</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>602418; 688582</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>778256; 888866</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>755479; 855777</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>809446; 1154026</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1079246; 1194125</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1320077; 1434937</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1221856; 1336285</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1684013; 2188101</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1699278; 1855089</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2129203; 2289239</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2000443; 2158337</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2580328; 3278130</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>